--- a/MO-IT103 _ Quality Assurance Testing _ S1102 _ Group 8 to Group 2.xlsx
+++ b/MO-IT103 _ Quality Assurance Testing _ S1102 _ Group 8 to Group 2.xlsx
@@ -1,112 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Quality Assurance" sheetId="1" r:id="rId4"/>
+    <sheet name="Quality Assurance" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
-    <t>Code by:</t>
+    <t xml:space="preserve">Code by:</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Group 2
      </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b val="0"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. Dioscoro Bondoy
 </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b val="0"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2. Charles Ferdiemar Gan
 </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b val="0"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>3.</t>
+      <t xml:space="preserve">3.</t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b val="0"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Marc Darrel Guevarra</t>
+      <t xml:space="preserve">Marc Darrel Guevarra
+     4. Waleed El – Shair</t>
     </r>
   </si>
   <si>
-    <t>RESULT</t>
+    <t xml:space="preserve">RESULT</t>
   </si>
   <si>
-    <t>QA Tested by:</t>
+    <t xml:space="preserve">QA Tested by:</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Group 8
      </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b val="0"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>1. John Louie Alova
+      <t xml:space="preserve">1. John Louie Alova
      2. Jelly Camba
      3. Roxanne Flores
      4. Michael Angel Lu
@@ -114,19 +149,19 @@
     </r>
   </si>
   <si>
-    <t>Client Name</t>
+    <t xml:space="preserve">Client Name</t>
   </si>
   <si>
-    <t>MotorPH</t>
+    <t xml:space="preserve">MotorPH</t>
   </si>
   <si>
-    <t>Project Description</t>
+    <t xml:space="preserve">Project Description</t>
   </si>
   <si>
-    <t>MotorPH needs a payroll system to manage their products, employee details, and salary.</t>
+    <t xml:space="preserve">MotorPH needs a payroll system to manage their products, employee details, and salary.</t>
   </si>
   <si>
-    <t>Testing Scenarios</t>
+    <t xml:space="preserve">Testing Scenarios</t>
   </si>
   <si>
     <t xml:space="preserve">1. Scenario 1: Check Login Functionality
@@ -135,111 +170,129 @@
 4. Scenario 4: Check Employee Management Functionality </t>
   </si>
   <si>
-    <t>SCENARIO</t>
+    <t xml:space="preserve">SCENARIO</t>
   </si>
   <si>
-    <t>TEST CASE ID #</t>
+    <t xml:space="preserve">TEST CASE ID #</t>
   </si>
   <si>
-    <t>TEST CASE</t>
+    <t xml:space="preserve">TEST CASE</t>
   </si>
   <si>
-    <t>INPUT</t>
+    <t xml:space="preserve">INPUT</t>
   </si>
   <si>
-    <t>STEPS</t>
+    <t xml:space="preserve">STEPS</t>
   </si>
   <si>
-    <t>EXPECTED RESULT</t>
+    <t xml:space="preserve">EXPECTED RESULT</t>
   </si>
   <si>
-    <t>ACTUAL RESULT</t>
+    <t xml:space="preserve">ACTUAL RESULT</t>
   </si>
   <si>
-    <t>TEST RESULT</t>
+    <t xml:space="preserve">TEST RESULT</t>
   </si>
   <si>
-    <t>Refer to comments in the code you're expected to review for guidance on the input.
+    <t xml:space="preserve">Refer to comments in the code you're expected to review for guidance on the input.
 You should also refer to your requirements document in determining the format or valid values.</t>
   </si>
   <si>
-    <t>Based on the requirements, fill out columns A to F.
+    <t xml:space="preserve">Based on the requirements, fill out columns A to F.
 Only fill out details in columns G and H once you're done with testing.</t>
   </si>
   <si>
     <r>
       <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <i/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mark the result as </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Pass</t>
+      <t xml:space="preserve">Pass</t>
     </r>
     <r>
       <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <i/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> if the actual result is the same the expected result, and </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Fail</t>
+      <t xml:space="preserve">Fail</t>
     </r>
     <r>
       <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <i/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> if it isn't.</t>
     </r>
   </si>
   <si>
-    <t>Check Login Functionality</t>
+    <t xml:space="preserve">Check Login Functionality</t>
   </si>
   <si>
-    <t>Launch application</t>
+    <t xml:space="preserve">Launch application</t>
   </si>
   <si>
-    <t>Run via IDE</t>
+    <t xml:space="preserve">Run via IDE</t>
   </si>
   <si>
-    <t>1.  User launches application via IDE.</t>
+    <t xml:space="preserve">1.  User launches application via IDE.</t>
   </si>
   <si>
-    <t>User views the login page.</t>
+    <t xml:space="preserve">User views the login page.</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t xml:space="preserve">Pass</t>
   </si>
   <si>
-    <t>Login with valid credentials</t>
+    <t xml:space="preserve">Login with valid credentials</t>
   </si>
   <si>
-    <t>UN: marc
+    <t xml:space="preserve">UN: marc
 PW: qwery123</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User clicks the username textfield and types the username.
 2. User clicks the password textfield and types the password.
@@ -247,35 +300,44 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Login </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
-    <t>User is redirected to the payroll system.</t>
+    <t xml:space="preserve">User is redirected to the payroll system.</t>
   </si>
   <si>
-    <t>Login with invalid credentials</t>
+    <t xml:space="preserve">Login with invalid credentials</t>
   </si>
   <si>
-    <t>UN: Employee
+    <t xml:space="preserve">UN: Employee
 PW: employee</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User clicks the username textfield and types the username.
 2. User clicks the password textfield and types the password.
@@ -283,37 +345,46 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Login</t>
+      <t xml:space="preserve">Login</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> button.</t>
     </r>
   </si>
   <si>
-    <t>User sees error message that they entered an incorrect username and password.</t>
+    <t xml:space="preserve">User sees error message that they entered an incorrect username and password.</t>
   </si>
   <si>
-    <t>Check Employee Details Functionality</t>
+    <t xml:space="preserve">Check Employee Details Functionality</t>
   </si>
   <si>
-    <t>Check employee 10001's details</t>
+    <t xml:space="preserve">Check employee 10001's details</t>
   </si>
   <si>
-    <t>Employee ID: 10001</t>
+    <t xml:space="preserve">Employee ID: 10001</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User logs in as employee 10001.
 2. User enters employee ID "10001".
@@ -321,279 +392,331 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Search </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
-    <t>User sees employee 10001's information.</t>
+    <t xml:space="preserve">User sees employee 10001's information.</t>
   </si>
   <si>
-    <t>Employee 10001 checks their payroll info</t>
+    <t xml:space="preserve">Employee 10001 checks their payroll info</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">1. User logs in as employee 10001.
-2. User enters employee ID "10001".
-3. User clicks the </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Search </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <color theme="1"/>
-      </rPr>
-      <t>button.</t>
-    </r>
+    <t xml:space="preserve">User sees employee 10001's payroll info.</t>
   </si>
   <si>
-    <t>User sees employee 10001's payroll info.</t>
+    <t xml:space="preserve">Check Leave Request Functionality</t>
   </si>
   <si>
-    <t>Check Leave Request Functionality</t>
+    <t xml:space="preserve">Employee 10001 requests for sick leave and has available leaves</t>
   </si>
   <si>
-    <t>Employee 10001 requests for sick leave and has available leaves</t>
-  </si>
-  <si>
-    <t>Employee ID: 10001
+    <t xml:space="preserve">Employee ID: 10001
 Date of Leave: May 27, 2023
 Leave Type: Sick Leave</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Apply Leave</t>
+      <t xml:space="preserve">Apply Leave</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> button in the dashboard.
 2. User enters 10001 in the employee ID box and selects </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">sick leave </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in the dropdown box.
 3. User chooses the date for their leave and clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Apply </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
-    <t>User sees a prompt saying that their application for leave is successful.</t>
+    <t xml:space="preserve">User sees a prompt saying that their application for leave is successful.</t>
   </si>
   <si>
-    <t>Employee 1000 requests for vacation leave and has available leaves</t>
+    <t xml:space="preserve">Employee 1000 requests for vacation leave and has available leaves</t>
   </si>
   <si>
-    <t>Employee ID: 10001
+    <t xml:space="preserve">Employee ID: 10001
 Date of Leave: May 27, 2023
 Leave Type: Vacation Leave</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Apply Leave</t>
+      <t xml:space="preserve">Apply Leave</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> button in the dashboard.
 2. User enters 10001 in the employee ID box and selects </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">vacation leave </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in the dropdown box.
 3. User chooses the date for their leave and clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Apply </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
-    <t>Employee 10001 requests for emergency leave and has available leaves</t>
+    <t xml:space="preserve">Employee 10001 requests for emergency leave and has available leaves</t>
   </si>
   <si>
-    <t>Employee ID: 10001
+    <t xml:space="preserve">Employee ID: 10001
 Date of Leave: May 27, 2023
 Leave Type: Emergency Leave</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Apply Leave</t>
+      <t xml:space="preserve">Apply Leave</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> button in the dashboard.
 2. User enters 10001 in the employee ID box and selects </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">emergency leave </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in the dropdown box.
 3. User chooses the date for their leave and clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Apply </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
-    <t>Check Employee Management Functionality</t>
+    <t xml:space="preserve">Check Employee Management Functionality</t>
   </si>
   <si>
-    <t>View Employee Management window</t>
+    <t xml:space="preserve">View Employee Management window</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Admin clicks </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Employee Mgt</t>
+      <t xml:space="preserve">Employee Mgt</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> button in the dashboard</t>
     </r>
@@ -601,106 +724,139 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User logs in successfully and is redirected to the payroll system.
 2. User clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Employee Mgt </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
-    <t>User views the Employee Management window.</t>
+    <t xml:space="preserve">User views the Employee Management window.</t>
   </si>
   <si>
-    <t>View an employee 10001's personal and salary information</t>
+    <t xml:space="preserve">View an employee 10001's personal and salary information</t>
   </si>
   <si>
-    <t>Admin selects employee number 10001 in the table shown.</t>
+    <t xml:space="preserve">Admin selects employee number 10001 in the table shown.</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User logs in to the payroll system.
 2. User clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Employee Mgt </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.
+      <t xml:space="preserve">button.
 3. User clicks employee 10001 in the table.</t>
     </r>
   </si>
   <si>
-    <t>User views employee 10001's personal and salary info.</t>
+    <t xml:space="preserve">User views employee 10001's personal and salary info.</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Update employee 10001's status from </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Regular </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">to </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Legendary</t>
+      <t xml:space="preserve">Legendary</t>
     </r>
   </si>
   <si>
-    <t>Status: Legendary</t>
+    <t xml:space="preserve">Status: Legendary</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User enters the Employee Management system.
 2. User clicks employee 10001 in the table.
@@ -708,261 +864,325 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Regular </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">with </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Legendary </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">and clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Update </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Employee 10001's status is updated from </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Regular </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">to </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Legendary</t>
+      <t xml:space="preserve">Legendary</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete employee 10023's employee records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin deletes employee 10023's records in the table.</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Employee 10001's status is updated from </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Regular </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">to </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Legendary</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <color theme="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Delete employee 10023's employee records</t>
-  </si>
-  <si>
-    <t>Admin deletes employee 10023's records in the table.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Nunito"/>
-        <color theme="1"/>
-      </rPr>
-      <t>1. User enters the Employee Management system.
+      <t xml:space="preserve">1. User enters the Employee Management system.
 2. User clicks employee 10023 in the table</t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">and clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Delete</t>
+      <t xml:space="preserve">Delete</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> button.</t>
     </r>
   </si>
   <si>
-    <t>User sees a prompt that the selected employee record was successfully deleted.</t>
+    <t xml:space="preserve">User sees a prompt that the selected employee record was successfully deleted.</t>
   </si>
   <si>
-    <t>Search for Josie's employee records in the table</t>
+    <t xml:space="preserve">Search for Josie's employee records in the table</t>
   </si>
   <si>
-    <t>Search: Josie</t>
+    <t xml:space="preserve">Search: Josie</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. User enters the Employee Management system.
 2. User enters the keyword "Josie" in the search bar and clicks the </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <b/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Search </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Nunito"/>
-        <color theme="1"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button.</t>
     </r>
   </si>
   <si>
-    <t>User views employee records containing the keyword "Josie".</t>
+    <t xml:space="preserve">User views employee records containing the keyword "Josie".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+  </numFmts>
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Nunito"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Nunito"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <u/>
-      <sz val="18.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Nunito"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="18.0"/>
+      <b val="true"/>
+      <sz val="18"/>
       <color rgb="FF38761D"/>
       <name val="Proxima Nova"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FFCC0000"/>
       <name val="Proxima Nova"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Nunito"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <i/>
-      <color theme="1"/>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Nunito"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Nunito"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -970,131 +1190,91 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3C78D8"/>
-        <bgColor rgb="FF3C78D8"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
-    <border/>
-    <border>
+  <borders count="10">
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF434343"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF434343"/>
       </top>
       <bottom style="thin">
         <color rgb="FF434343"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF434343"/>
       </top>
       <bottom style="thin">
         <color rgb="FF434343"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF434343"/>
       </left>
       <right style="thin">
         <color rgb="FF434343"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF434343"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF434343"/>
-      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF434343"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF434343"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF434343"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF434343"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF434343"/>
-      </bottom>
-    </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF434343"/>
       </left>
@@ -1104,8 +1284,10 @@
       <top style="thin">
         <color rgb="FF434343"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF434343"/>
       </left>
@@ -1118,19 +1300,10 @@
       <bottom style="thin">
         <color rgb="FF434343"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin">
         <color rgb="FF434343"/>
       </right>
@@ -1140,380 +1313,261 @@
       <bottom style="thin">
         <color rgb="FF434343"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
+        <patternFill>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
+        <patternFill>
           <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF38761D"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFB7E1CD"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF4CCCC"/>
+      <rgbColor rgb="FF3C78D8"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF434343"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AB524"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.5"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="4" width="24.13"/>
-    <col customWidth="1" min="5" max="5" width="54.5"/>
-    <col customWidth="1" min="6" max="6" width="26.63"/>
-    <col customWidth="1" min="7" max="7" width="24.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1543,7 +1597,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +1605,8 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3"/>
@@ -1579,7 +1633,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1587,10 +1641,10 @@
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9" t="str">
-        <f>CONCAT(concat(concat(countif(H10:H22,"Pass"),"/"), counta(H10:H22))," Test Cases Passed!")</f>
-        <v>13/13 Test Cases Passed!</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="e">
+        <f aca="false">concat(concat(concat(COUNTIF(H10:H22,"Pass"),"/"), COUNTA(H10:H22))," Test Cases Passed!")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -1616,7 +1670,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1624,8 +1678,8 @@
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1650,16 +1704,16 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1684,23 +1738,23 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="str">
-        <f>"✖ Test Cases: " &amp; IF(H10="Fail",B10,"") &amp; IF(H11="Fail", ", " &amp; B11,"")  &amp; IF(H12="Fail",B12,"") &amp;
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="str">
+        <f aca="false">"✖ Test Cases: " &amp; IF(H10="Fail",B10,"") &amp; IF(H11="Fail", ", " &amp; B11,"")  &amp; IF(H12="Fail",B12,"") &amp;
 IF(H13="Fail",", " &amp; B13,"") &amp; IF(H14="Fail",", " &amp; B14,"") &amp; IF(H15="Fail",", " &amp; B15,"") &amp; IF(H16="Fail",", " &amp; B16,"") &amp;
 IF(H17="Fail",", " &amp; B17,"") &amp; IF(H18="Fail",", " &amp; B18,"") &amp; IF(H19="Fail",", " &amp; B19,"") &amp;
-IF(H20="Fail",", " &amp; B20,"") &amp; IF(H21="Fail",", " &amp; B21,"") &amp; IF(H22="Fail",", " &amp; B22,"") &amp; IF(countif(H10:H24,"Fail") = 0,"0","") &amp; IF(H23="Fail",", " &amp; B23,"") &amp; IF(H24="Fail",", " &amp; B24,"")</f>
+IF(H20="Fail",", " &amp; B20,"") &amp; IF(H21="Fail",", " &amp; B21,"") &amp; IF(H22="Fail",", " &amp; B22,"") &amp; IF(COUNTIF(H10:H24,"Fail") = 0,"0","") &amp; IF(H23="Fail",", " &amp; B23,"") &amp; IF(H24="Fail",", " &amp; B24,"")</f>
         <v>✖ Test Cases: 0</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1724,7 +1778,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1734,7 +1788,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1754,65 +1808,65 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="18" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-    </row>
-    <row r="9" ht="1.5" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="2"/>
@@ -1836,29 +1890,29 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" ht="39.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+    <row r="10" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="28">
-        <v>1.0</v>
+      <c r="B10" s="19" t="n">
+        <v>1</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="2"/>
@@ -1882,28 +1936,28 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" ht="39.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="28">
-        <f t="shared" ref="B11:B22" si="1">B10+1</f>
+    <row r="11" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="19" t="n">
+        <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
@@ -1927,28 +1981,28 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" ht="39.75" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="28">
-        <f t="shared" si="1"/>
+    <row r="12" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="19" t="n">
+        <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="2"/>
@@ -1972,30 +2026,30 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" ht="39.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+    <row r="13" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="28">
-        <f t="shared" si="1"/>
+      <c r="B13" s="19" t="n">
+        <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="2"/>
@@ -2019,28 +2073,28 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" ht="39.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28">
-        <f t="shared" si="1"/>
+    <row r="14" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="19" t="n">
+        <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>43</v>
+      <c r="G14" s="22" t="s">
+        <v>42</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="2"/>
@@ -2064,30 +2118,30 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" ht="63.75" customHeight="1">
-      <c r="A15" s="27" t="s">
+    <row r="15" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="19" t="n">
+        <f aca="false">B14+1</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="36" t="s">
+      <c r="D15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="E15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="F15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>48</v>
+      <c r="G15" s="22" t="s">
+        <v>47</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="2"/>
@@ -2111,28 +2165,28 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" ht="63.75" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="28">
-        <f t="shared" si="1"/>
+    <row r="16" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="19" t="n">
+        <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="E16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>51</v>
+      <c r="F16" s="22" t="s">
+        <v>47</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>48</v>
+      <c r="G16" s="22" t="s">
+        <v>47</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="2"/>
@@ -2156,28 +2210,28 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" ht="63.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="28">
-        <f t="shared" si="1"/>
+    <row r="17" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="19" t="n">
+        <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>54</v>
+      <c r="F17" s="22" t="s">
+        <v>47</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>48</v>
+      <c r="G17" s="22" t="s">
+        <v>47</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="2"/>
@@ -2201,30 +2255,30 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" ht="40.5" customHeight="1">
-      <c r="A18" s="27" t="s">
+    <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="19" t="n">
+        <f aca="false">B17+1</f>
+        <v>9</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="28">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="D18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="E18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="F18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>59</v>
+      <c r="G18" s="22" t="s">
+        <v>58</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="2"/>
@@ -2248,28 +2302,28 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" ht="40.5" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="28">
-        <f t="shared" si="1"/>
+    <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="19" t="n">
+        <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="E19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="F19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>63</v>
+      <c r="G19" s="22" t="s">
+        <v>62</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="2"/>
@@ -2293,28 +2347,28 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" ht="40.5" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="28">
-        <f t="shared" si="1"/>
+    <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="19" t="n">
+        <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="E20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="F20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>67</v>
+      <c r="G20" s="22" t="s">
+        <v>66</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="2"/>
@@ -2338,28 +2392,28 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" ht="40.5" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="28">
-        <f t="shared" si="1"/>
+    <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="19" t="n">
+        <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="F21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>71</v>
+      <c r="G21" s="22" t="s">
+        <v>70</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="2"/>
@@ -2383,28 +2437,28 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" ht="40.5" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="28">
-        <f t="shared" si="1"/>
+    <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="19" t="n">
+        <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="F22" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>75</v>
+      <c r="G22" s="22" t="s">
+        <v>74</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="2"/>
@@ -2428,7 +2482,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2458,7 +2512,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2488,7 +2542,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2518,7 +2572,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2548,7 +2602,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2578,7 +2632,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2608,7 +2662,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2638,7 +2692,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2668,7 +2722,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2698,7 +2752,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2728,7 +2782,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2758,7 +2812,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2788,7 +2842,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2818,7 +2872,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2848,7 +2902,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2878,7 +2932,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2908,7 +2962,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2938,7 +2992,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2968,7 +3022,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2998,7 +3052,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3028,7 +3082,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3058,7 +3112,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3088,7 +3142,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3118,7 +3172,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3148,7 +3202,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3178,7 +3232,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3208,7 +3262,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3238,7 +3292,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3268,7 +3322,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3298,7 +3352,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3328,7 +3382,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3358,7 +3412,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3388,7 +3442,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3418,7 +3472,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3448,7 +3502,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3478,7 +3532,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3508,7 +3562,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3538,7 +3592,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3568,7 +3622,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3598,7 +3652,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3628,7 +3682,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3658,7 +3712,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3688,7 +3742,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3718,7 +3772,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3748,7 +3802,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3778,7 +3832,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3808,7 +3862,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3838,7 +3892,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3868,7 +3922,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3898,7 +3952,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3928,7 +3982,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3958,7 +4012,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3988,7 +4042,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4018,7 +4072,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4048,7 +4102,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4078,7 +4132,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4108,7 +4162,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4138,7 +4192,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4168,7 +4222,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4198,7 +4252,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4228,7 +4282,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4258,7 +4312,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4288,7 +4342,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4318,7 +4372,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4348,7 +4402,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4378,7 +4432,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4408,7 +4462,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4438,7 +4492,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4468,7 +4522,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4498,7 +4552,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4528,7 +4582,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4558,7 +4612,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4588,7 +4642,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4618,7 +4672,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4648,7 +4702,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4678,7 +4732,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4708,7 +4762,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4738,7 +4792,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4768,7 +4822,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4798,7 +4852,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4828,7 +4882,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4858,7 +4912,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4888,7 +4942,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4918,7 +4972,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4948,7 +5002,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4978,7 +5032,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5008,7 +5062,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5038,7 +5092,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5068,7 +5122,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5098,7 +5152,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5128,7 +5182,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5158,7 +5212,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5188,7 +5242,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5218,7 +5272,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5248,7 +5302,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5278,7 +5332,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5308,7 +5362,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5338,7 +5392,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5368,7 +5422,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5398,7 +5452,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5428,7 +5482,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5458,7 +5512,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5488,7 +5542,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5518,7 +5572,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5548,7 +5602,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5578,7 +5632,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5608,7 +5662,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5638,7 +5692,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5668,7 +5722,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5698,7 +5752,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5728,7 +5782,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5758,7 +5812,7 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5788,7 +5842,7 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5818,7 +5872,7 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5848,7 +5902,7 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5878,7 +5932,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5908,7 +5962,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5938,7 +5992,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5968,7 +6022,7 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5998,7 +6052,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6028,7 +6082,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6058,7 +6112,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6088,7 +6142,7 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6118,7 +6172,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6148,7 +6202,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6178,7 +6232,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6208,7 +6262,7 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6238,7 +6292,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6268,7 +6322,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6298,7 +6352,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6328,7 +6382,7 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6358,7 +6412,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6388,7 +6442,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6418,7 +6472,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6448,7 +6502,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6478,7 +6532,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6508,7 +6562,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6538,7 +6592,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6568,7 +6622,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6598,7 +6652,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6628,7 +6682,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6658,7 +6712,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6688,7 +6742,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6718,7 +6772,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6748,7 +6802,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6778,7 +6832,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6808,7 +6862,7 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6838,7 +6892,7 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6868,7 +6922,7 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6898,7 +6952,7 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6928,7 +6982,7 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6958,7 +7012,7 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6988,7 +7042,7 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7018,7 +7072,7 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7048,7 +7102,7 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7078,7 +7132,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7108,7 +7162,7 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7138,7 +7192,7 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7168,7 +7222,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7198,7 +7252,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7228,7 +7282,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7258,7 +7312,7 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7288,7 +7342,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7318,7 +7372,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7348,7 +7402,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7378,7 +7432,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7408,7 +7462,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7438,7 +7492,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7468,7 +7522,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7498,7 +7552,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7528,7 +7582,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7558,7 +7612,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7588,7 +7642,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7618,7 +7672,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7648,7 +7702,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7678,7 +7732,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7708,7 +7762,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7738,7 +7792,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7768,7 +7822,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7798,7 +7852,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7828,7 +7882,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7858,7 +7912,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7888,7 +7942,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7918,7 +7972,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7948,7 +8002,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7978,7 +8032,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -8008,7 +8062,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -8038,7 +8092,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -8068,7 +8122,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -8098,7 +8152,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -8128,7 +8182,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -8158,7 +8212,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -8188,7 +8242,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -8218,7 +8272,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -8248,7 +8302,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -8278,7 +8332,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8308,7 +8362,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8338,7 +8392,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8368,7 +8422,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8398,7 +8452,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8428,7 +8482,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8458,7 +8512,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8488,7 +8542,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8518,7 +8572,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8548,7 +8602,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8578,7 +8632,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8608,7 +8662,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8638,7 +8692,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8668,7 +8722,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8698,7 +8752,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8728,7 +8782,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8758,7 +8812,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8788,7 +8842,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8818,7 +8872,7 @@
       <c r="AA235" s="2"/>
       <c r="AB235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8848,7 +8902,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8878,7 +8932,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8908,7 +8962,7 @@
       <c r="AA238" s="2"/>
       <c r="AB238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8938,7 +8992,7 @@
       <c r="AA239" s="2"/>
       <c r="AB239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8968,7 +9022,7 @@
       <c r="AA240" s="2"/>
       <c r="AB240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8998,7 +9052,7 @@
       <c r="AA241" s="2"/>
       <c r="AB241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -9028,7 +9082,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -9058,7 +9112,7 @@
       <c r="AA243" s="2"/>
       <c r="AB243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -9088,7 +9142,7 @@
       <c r="AA244" s="2"/>
       <c r="AB244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -9118,7 +9172,7 @@
       <c r="AA245" s="2"/>
       <c r="AB245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -9148,7 +9202,7 @@
       <c r="AA246" s="2"/>
       <c r="AB246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -9178,7 +9232,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -9208,7 +9262,7 @@
       <c r="AA248" s="2"/>
       <c r="AB248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -9238,7 +9292,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -9268,7 +9322,7 @@
       <c r="AA250" s="2"/>
       <c r="AB250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -9298,7 +9352,7 @@
       <c r="AA251" s="2"/>
       <c r="AB251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9328,7 +9382,7 @@
       <c r="AA252" s="2"/>
       <c r="AB252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9358,7 +9412,7 @@
       <c r="AA253" s="2"/>
       <c r="AB253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9388,7 +9442,7 @@
       <c r="AA254" s="2"/>
       <c r="AB254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9418,7 +9472,7 @@
       <c r="AA255" s="2"/>
       <c r="AB255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9448,7 +9502,7 @@
       <c r="AA256" s="2"/>
       <c r="AB256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9478,7 +9532,7 @@
       <c r="AA257" s="2"/>
       <c r="AB257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9508,7 +9562,7 @@
       <c r="AA258" s="2"/>
       <c r="AB258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9538,7 +9592,7 @@
       <c r="AA259" s="2"/>
       <c r="AB259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9568,7 +9622,7 @@
       <c r="AA260" s="2"/>
       <c r="AB260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9598,7 +9652,7 @@
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9628,7 +9682,7 @@
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9658,7 +9712,7 @@
       <c r="AA263" s="2"/>
       <c r="AB263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9688,7 +9742,7 @@
       <c r="AA264" s="2"/>
       <c r="AB264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9718,7 +9772,7 @@
       <c r="AA265" s="2"/>
       <c r="AB265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9748,7 +9802,7 @@
       <c r="AA266" s="2"/>
       <c r="AB266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9778,7 +9832,7 @@
       <c r="AA267" s="2"/>
       <c r="AB267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9808,7 +9862,7 @@
       <c r="AA268" s="2"/>
       <c r="AB268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9838,7 +9892,7 @@
       <c r="AA269" s="2"/>
       <c r="AB269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9868,7 +9922,7 @@
       <c r="AA270" s="2"/>
       <c r="AB270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9898,7 +9952,7 @@
       <c r="AA271" s="2"/>
       <c r="AB271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9928,7 +9982,7 @@
       <c r="AA272" s="2"/>
       <c r="AB272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9958,7 +10012,7 @@
       <c r="AA273" s="2"/>
       <c r="AB273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9988,7 +10042,7 @@
       <c r="AA274" s="2"/>
       <c r="AB274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -10018,7 +10072,7 @@
       <c r="AA275" s="2"/>
       <c r="AB275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -10048,7 +10102,7 @@
       <c r="AA276" s="2"/>
       <c r="AB276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -10078,7 +10132,7 @@
       <c r="AA277" s="2"/>
       <c r="AB277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -10108,7 +10162,7 @@
       <c r="AA278" s="2"/>
       <c r="AB278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -10138,7 +10192,7 @@
       <c r="AA279" s="2"/>
       <c r="AB279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -10168,7 +10222,7 @@
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -10198,7 +10252,7 @@
       <c r="AA281" s="2"/>
       <c r="AB281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -10228,7 +10282,7 @@
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -10258,7 +10312,7 @@
       <c r="AA283" s="2"/>
       <c r="AB283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -10288,7 +10342,7 @@
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -10318,7 +10372,7 @@
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -10348,7 +10402,7 @@
       <c r="AA286" s="2"/>
       <c r="AB286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10378,7 +10432,7 @@
       <c r="AA287" s="2"/>
       <c r="AB287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10408,7 +10462,7 @@
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10438,7 +10492,7 @@
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10468,7 +10522,7 @@
       <c r="AA290" s="2"/>
       <c r="AB290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10498,7 +10552,7 @@
       <c r="AA291" s="2"/>
       <c r="AB291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10528,7 +10582,7 @@
       <c r="AA292" s="2"/>
       <c r="AB292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10558,7 +10612,7 @@
       <c r="AA293" s="2"/>
       <c r="AB293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10588,7 +10642,7 @@
       <c r="AA294" s="2"/>
       <c r="AB294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10618,7 +10672,7 @@
       <c r="AA295" s="2"/>
       <c r="AB295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10648,7 +10702,7 @@
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10678,7 +10732,7 @@
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10708,7 +10762,7 @@
       <c r="AA298" s="2"/>
       <c r="AB298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10738,7 +10792,7 @@
       <c r="AA299" s="2"/>
       <c r="AB299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10768,7 +10822,7 @@
       <c r="AA300" s="2"/>
       <c r="AB300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10798,7 +10852,7 @@
       <c r="AA301" s="2"/>
       <c r="AB301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10828,7 +10882,7 @@
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10858,7 +10912,7 @@
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10888,7 +10942,7 @@
       <c r="AA304" s="2"/>
       <c r="AB304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10918,7 +10972,7 @@
       <c r="AA305" s="2"/>
       <c r="AB305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10948,7 +11002,7 @@
       <c r="AA306" s="2"/>
       <c r="AB306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10978,7 +11032,7 @@
       <c r="AA307" s="2"/>
       <c r="AB307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -11008,7 +11062,7 @@
       <c r="AA308" s="2"/>
       <c r="AB308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -11038,7 +11092,7 @@
       <c r="AA309" s="2"/>
       <c r="AB309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -11068,7 +11122,7 @@
       <c r="AA310" s="2"/>
       <c r="AB310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -11098,7 +11152,7 @@
       <c r="AA311" s="2"/>
       <c r="AB311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -11128,7 +11182,7 @@
       <c r="AA312" s="2"/>
       <c r="AB312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -11158,7 +11212,7 @@
       <c r="AA313" s="2"/>
       <c r="AB313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -11188,7 +11242,7 @@
       <c r="AA314" s="2"/>
       <c r="AB314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -11218,7 +11272,7 @@
       <c r="AA315" s="2"/>
       <c r="AB315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -11248,7 +11302,7 @@
       <c r="AA316" s="2"/>
       <c r="AB316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -11278,7 +11332,7 @@
       <c r="AA317" s="2"/>
       <c r="AB317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -11308,7 +11362,7 @@
       <c r="AA318" s="2"/>
       <c r="AB318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -11338,7 +11392,7 @@
       <c r="AA319" s="2"/>
       <c r="AB319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -11368,7 +11422,7 @@
       <c r="AA320" s="2"/>
       <c r="AB320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -11398,7 +11452,7 @@
       <c r="AA321" s="2"/>
       <c r="AB321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11428,7 +11482,7 @@
       <c r="AA322" s="2"/>
       <c r="AB322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11458,7 +11512,7 @@
       <c r="AA323" s="2"/>
       <c r="AB323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11488,7 +11542,7 @@
       <c r="AA324" s="2"/>
       <c r="AB324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11518,7 +11572,7 @@
       <c r="AA325" s="2"/>
       <c r="AB325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11548,7 +11602,7 @@
       <c r="AA326" s="2"/>
       <c r="AB326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11578,7 +11632,7 @@
       <c r="AA327" s="2"/>
       <c r="AB327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11608,7 +11662,7 @@
       <c r="AA328" s="2"/>
       <c r="AB328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11638,7 +11692,7 @@
       <c r="AA329" s="2"/>
       <c r="AB329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11668,7 +11722,7 @@
       <c r="AA330" s="2"/>
       <c r="AB330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11698,7 +11752,7 @@
       <c r="AA331" s="2"/>
       <c r="AB331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11728,7 +11782,7 @@
       <c r="AA332" s="2"/>
       <c r="AB332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11758,7 +11812,7 @@
       <c r="AA333" s="2"/>
       <c r="AB333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11788,7 +11842,7 @@
       <c r="AA334" s="2"/>
       <c r="AB334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11818,7 +11872,7 @@
       <c r="AA335" s="2"/>
       <c r="AB335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11848,7 +11902,7 @@
       <c r="AA336" s="2"/>
       <c r="AB336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11878,7 +11932,7 @@
       <c r="AA337" s="2"/>
       <c r="AB337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11908,7 +11962,7 @@
       <c r="AA338" s="2"/>
       <c r="AB338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11938,7 +11992,7 @@
       <c r="AA339" s="2"/>
       <c r="AB339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11968,7 +12022,7 @@
       <c r="AA340" s="2"/>
       <c r="AB340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11998,7 +12052,7 @@
       <c r="AA341" s="2"/>
       <c r="AB341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -12028,7 +12082,7 @@
       <c r="AA342" s="2"/>
       <c r="AB342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -12058,7 +12112,7 @@
       <c r="AA343" s="2"/>
       <c r="AB343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -12088,7 +12142,7 @@
       <c r="AA344" s="2"/>
       <c r="AB344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -12118,7 +12172,7 @@
       <c r="AA345" s="2"/>
       <c r="AB345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -12148,7 +12202,7 @@
       <c r="AA346" s="2"/>
       <c r="AB346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -12178,7 +12232,7 @@
       <c r="AA347" s="2"/>
       <c r="AB347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -12208,7 +12262,7 @@
       <c r="AA348" s="2"/>
       <c r="AB348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -12238,7 +12292,7 @@
       <c r="AA349" s="2"/>
       <c r="AB349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -12268,7 +12322,7 @@
       <c r="AA350" s="2"/>
       <c r="AB350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -12298,7 +12352,7 @@
       <c r="AA351" s="2"/>
       <c r="AB351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -12328,7 +12382,7 @@
       <c r="AA352" s="2"/>
       <c r="AB352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -12358,7 +12412,7 @@
       <c r="AA353" s="2"/>
       <c r="AB353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -12388,7 +12442,7 @@
       <c r="AA354" s="2"/>
       <c r="AB354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -12418,7 +12472,7 @@
       <c r="AA355" s="2"/>
       <c r="AB355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12448,7 +12502,7 @@
       <c r="AA356" s="2"/>
       <c r="AB356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12478,7 +12532,7 @@
       <c r="AA357" s="2"/>
       <c r="AB357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12508,7 +12562,7 @@
       <c r="AA358" s="2"/>
       <c r="AB358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12538,7 +12592,7 @@
       <c r="AA359" s="2"/>
       <c r="AB359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12568,7 +12622,7 @@
       <c r="AA360" s="2"/>
       <c r="AB360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12598,7 +12652,7 @@
       <c r="AA361" s="2"/>
       <c r="AB361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12628,7 +12682,7 @@
       <c r="AA362" s="2"/>
       <c r="AB362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12658,7 +12712,7 @@
       <c r="AA363" s="2"/>
       <c r="AB363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12688,7 +12742,7 @@
       <c r="AA364" s="2"/>
       <c r="AB364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12718,7 +12772,7 @@
       <c r="AA365" s="2"/>
       <c r="AB365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12748,7 +12802,7 @@
       <c r="AA366" s="2"/>
       <c r="AB366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12778,7 +12832,7 @@
       <c r="AA367" s="2"/>
       <c r="AB367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12808,7 +12862,7 @@
       <c r="AA368" s="2"/>
       <c r="AB368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12838,7 +12892,7 @@
       <c r="AA369" s="2"/>
       <c r="AB369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12868,7 +12922,7 @@
       <c r="AA370" s="2"/>
       <c r="AB370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12898,7 +12952,7 @@
       <c r="AA371" s="2"/>
       <c r="AB371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12928,7 +12982,7 @@
       <c r="AA372" s="2"/>
       <c r="AB372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12958,7 +13012,7 @@
       <c r="AA373" s="2"/>
       <c r="AB373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12988,7 +13042,7 @@
       <c r="AA374" s="2"/>
       <c r="AB374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -13018,7 +13072,7 @@
       <c r="AA375" s="2"/>
       <c r="AB375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -13048,7 +13102,7 @@
       <c r="AA376" s="2"/>
       <c r="AB376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -13078,7 +13132,7 @@
       <c r="AA377" s="2"/>
       <c r="AB377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -13108,7 +13162,7 @@
       <c r="AA378" s="2"/>
       <c r="AB378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -13138,7 +13192,7 @@
       <c r="AA379" s="2"/>
       <c r="AB379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -13168,7 +13222,7 @@
       <c r="AA380" s="2"/>
       <c r="AB380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -13198,7 +13252,7 @@
       <c r="AA381" s="2"/>
       <c r="AB381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -13228,7 +13282,7 @@
       <c r="AA382" s="2"/>
       <c r="AB382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -13258,7 +13312,7 @@
       <c r="AA383" s="2"/>
       <c r="AB383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -13288,7 +13342,7 @@
       <c r="AA384" s="2"/>
       <c r="AB384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -13318,7 +13372,7 @@
       <c r="AA385" s="2"/>
       <c r="AB385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -13348,7 +13402,7 @@
       <c r="AA386" s="2"/>
       <c r="AB386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -13378,7 +13432,7 @@
       <c r="AA387" s="2"/>
       <c r="AB387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -13408,7 +13462,7 @@
       <c r="AA388" s="2"/>
       <c r="AB388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -13438,7 +13492,7 @@
       <c r="AA389" s="2"/>
       <c r="AB389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13468,7 +13522,7 @@
       <c r="AA390" s="2"/>
       <c r="AB390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13498,7 +13552,7 @@
       <c r="AA391" s="2"/>
       <c r="AB391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13528,7 +13582,7 @@
       <c r="AA392" s="2"/>
       <c r="AB392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13558,7 +13612,7 @@
       <c r="AA393" s="2"/>
       <c r="AB393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13588,7 +13642,7 @@
       <c r="AA394" s="2"/>
       <c r="AB394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13618,7 +13672,7 @@
       <c r="AA395" s="2"/>
       <c r="AB395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13648,7 +13702,7 @@
       <c r="AA396" s="2"/>
       <c r="AB396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13678,7 +13732,7 @@
       <c r="AA397" s="2"/>
       <c r="AB397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13708,7 +13762,7 @@
       <c r="AA398" s="2"/>
       <c r="AB398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13738,7 +13792,7 @@
       <c r="AA399" s="2"/>
       <c r="AB399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13768,7 +13822,7 @@
       <c r="AA400" s="2"/>
       <c r="AB400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13798,7 +13852,7 @@
       <c r="AA401" s="2"/>
       <c r="AB401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13828,7 +13882,7 @@
       <c r="AA402" s="2"/>
       <c r="AB402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13858,7 +13912,7 @@
       <c r="AA403" s="2"/>
       <c r="AB403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13888,7 +13942,7 @@
       <c r="AA404" s="2"/>
       <c r="AB404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13918,7 +13972,7 @@
       <c r="AA405" s="2"/>
       <c r="AB405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13948,7 +14002,7 @@
       <c r="AA406" s="2"/>
       <c r="AB406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13978,7 +14032,7 @@
       <c r="AA407" s="2"/>
       <c r="AB407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -14008,7 +14062,7 @@
       <c r="AA408" s="2"/>
       <c r="AB408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -14038,7 +14092,7 @@
       <c r="AA409" s="2"/>
       <c r="AB409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -14068,7 +14122,7 @@
       <c r="AA410" s="2"/>
       <c r="AB410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -14098,7 +14152,7 @@
       <c r="AA411" s="2"/>
       <c r="AB411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -14128,7 +14182,7 @@
       <c r="AA412" s="2"/>
       <c r="AB412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -14158,7 +14212,7 @@
       <c r="AA413" s="2"/>
       <c r="AB413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -14188,7 +14242,7 @@
       <c r="AA414" s="2"/>
       <c r="AB414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -14218,7 +14272,7 @@
       <c r="AA415" s="2"/>
       <c r="AB415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -14248,7 +14302,7 @@
       <c r="AA416" s="2"/>
       <c r="AB416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -14278,7 +14332,7 @@
       <c r="AA417" s="2"/>
       <c r="AB417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -14308,7 +14362,7 @@
       <c r="AA418" s="2"/>
       <c r="AB418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -14338,7 +14392,7 @@
       <c r="AA419" s="2"/>
       <c r="AB419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -14368,7 +14422,7 @@
       <c r="AA420" s="2"/>
       <c r="AB420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -14398,7 +14452,7 @@
       <c r="AA421" s="2"/>
       <c r="AB421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -14428,7 +14482,7 @@
       <c r="AA422" s="2"/>
       <c r="AB422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -14458,7 +14512,7 @@
       <c r="AA423" s="2"/>
       <c r="AB423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -14488,7 +14542,7 @@
       <c r="AA424" s="2"/>
       <c r="AB424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14518,7 +14572,7 @@
       <c r="AA425" s="2"/>
       <c r="AB425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14548,7 +14602,7 @@
       <c r="AA426" s="2"/>
       <c r="AB426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14578,7 +14632,7 @@
       <c r="AA427" s="2"/>
       <c r="AB427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14608,7 +14662,7 @@
       <c r="AA428" s="2"/>
       <c r="AB428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14638,7 +14692,7 @@
       <c r="AA429" s="2"/>
       <c r="AB429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14668,7 +14722,7 @@
       <c r="AA430" s="2"/>
       <c r="AB430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14698,7 +14752,7 @@
       <c r="AA431" s="2"/>
       <c r="AB431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14728,7 +14782,7 @@
       <c r="AA432" s="2"/>
       <c r="AB432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14758,7 +14812,7 @@
       <c r="AA433" s="2"/>
       <c r="AB433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14788,7 +14842,7 @@
       <c r="AA434" s="2"/>
       <c r="AB434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14818,7 +14872,7 @@
       <c r="AA435" s="2"/>
       <c r="AB435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14848,7 +14902,7 @@
       <c r="AA436" s="2"/>
       <c r="AB436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14878,7 +14932,7 @@
       <c r="AA437" s="2"/>
       <c r="AB437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14908,7 +14962,7 @@
       <c r="AA438" s="2"/>
       <c r="AB438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14938,7 +14992,7 @@
       <c r="AA439" s="2"/>
       <c r="AB439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14968,7 +15022,7 @@
       <c r="AA440" s="2"/>
       <c r="AB440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14998,7 +15052,7 @@
       <c r="AA441" s="2"/>
       <c r="AB441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -15028,7 +15082,7 @@
       <c r="AA442" s="2"/>
       <c r="AB442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -15058,7 +15112,7 @@
       <c r="AA443" s="2"/>
       <c r="AB443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -15088,7 +15142,7 @@
       <c r="AA444" s="2"/>
       <c r="AB444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -15118,7 +15172,7 @@
       <c r="AA445" s="2"/>
       <c r="AB445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -15148,7 +15202,7 @@
       <c r="AA446" s="2"/>
       <c r="AB446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -15178,7 +15232,7 @@
       <c r="AA447" s="2"/>
       <c r="AB447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -15208,7 +15262,7 @@
       <c r="AA448" s="2"/>
       <c r="AB448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -15238,7 +15292,7 @@
       <c r="AA449" s="2"/>
       <c r="AB449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -15268,7 +15322,7 @@
       <c r="AA450" s="2"/>
       <c r="AB450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -15298,7 +15352,7 @@
       <c r="AA451" s="2"/>
       <c r="AB451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -15328,7 +15382,7 @@
       <c r="AA452" s="2"/>
       <c r="AB452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -15358,7 +15412,7 @@
       <c r="AA453" s="2"/>
       <c r="AB453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -15388,7 +15442,7 @@
       <c r="AA454" s="2"/>
       <c r="AB454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -15418,7 +15472,7 @@
       <c r="AA455" s="2"/>
       <c r="AB455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -15448,7 +15502,7 @@
       <c r="AA456" s="2"/>
       <c r="AB456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="3"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -15478,7 +15532,7 @@
       <c r="AA457" s="2"/>
       <c r="AB457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -15508,7 +15562,7 @@
       <c r="AA458" s="2"/>
       <c r="AB458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="3"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15538,7 +15592,7 @@
       <c r="AA459" s="2"/>
       <c r="AB459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15568,7 +15622,7 @@
       <c r="AA460" s="2"/>
       <c r="AB460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15598,7 +15652,7 @@
       <c r="AA461" s="2"/>
       <c r="AB461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15628,7 +15682,7 @@
       <c r="AA462" s="2"/>
       <c r="AB462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15658,7 +15712,7 @@
       <c r="AA463" s="2"/>
       <c r="AB463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="3"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15688,7 +15742,7 @@
       <c r="AA464" s="2"/>
       <c r="AB464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15718,7 +15772,7 @@
       <c r="AA465" s="2"/>
       <c r="AB465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="3"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15748,7 +15802,7 @@
       <c r="AA466" s="2"/>
       <c r="AB466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15778,7 +15832,7 @@
       <c r="AA467" s="2"/>
       <c r="AB467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15808,7 +15862,7 @@
       <c r="AA468" s="2"/>
       <c r="AB468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15838,7 +15892,7 @@
       <c r="AA469" s="2"/>
       <c r="AB469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15868,7 +15922,7 @@
       <c r="AA470" s="2"/>
       <c r="AB470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15898,7 +15952,7 @@
       <c r="AA471" s="2"/>
       <c r="AB471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="3"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15928,7 +15982,7 @@
       <c r="AA472" s="2"/>
       <c r="AB472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="3"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15958,7 +16012,7 @@
       <c r="AA473" s="2"/>
       <c r="AB473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="3"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15988,7 +16042,7 @@
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="3"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -16018,7 +16072,7 @@
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -16048,7 +16102,7 @@
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -16078,7 +16132,7 @@
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -16108,7 +16162,7 @@
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -16138,7 +16192,7 @@
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -16168,7 +16222,7 @@
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -16198,7 +16252,7 @@
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -16228,7 +16282,7 @@
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -16258,7 +16312,7 @@
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -16288,7 +16342,7 @@
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -16318,7 +16372,7 @@
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -16348,7 +16402,7 @@
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -16378,7 +16432,7 @@
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -16408,7 +16462,7 @@
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -16438,7 +16492,7 @@
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -16468,7 +16522,7 @@
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -16498,7 +16552,7 @@
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -16528,7 +16582,7 @@
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -16558,7 +16612,7 @@
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16588,7 +16642,7 @@
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16618,7 +16672,7 @@
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16648,7 +16702,7 @@
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16678,7 +16732,7 @@
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16708,7 +16762,7 @@
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16738,7 +16792,7 @@
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16768,7 +16822,7 @@
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16798,7 +16852,7 @@
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16828,7 +16882,7 @@
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16858,7 +16912,7 @@
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16888,7 +16942,7 @@
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16918,7 +16972,7 @@
       <c r="AA505" s="2"/>
       <c r="AB505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16948,7 +17002,7 @@
       <c r="AA506" s="2"/>
       <c r="AB506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16978,7 +17032,7 @@
       <c r="AA507" s="2"/>
       <c r="AB507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -17008,7 +17062,7 @@
       <c r="AA508" s="2"/>
       <c r="AB508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -17038,7 +17092,7 @@
       <c r="AA509" s="2"/>
       <c r="AB509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -17068,7 +17122,7 @@
       <c r="AA510" s="2"/>
       <c r="AB510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -17098,7 +17152,7 @@
       <c r="AA511" s="2"/>
       <c r="AB511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -17128,7 +17182,7 @@
       <c r="AA512" s="2"/>
       <c r="AB512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -17158,7 +17212,7 @@
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -17188,7 +17242,7 @@
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -17218,7 +17272,7 @@
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -17248,7 +17302,7 @@
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17278,7 +17332,7 @@
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17308,7 +17362,7 @@
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17338,7 +17392,7 @@
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17368,7 +17422,7 @@
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="3"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17398,7 +17452,7 @@
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17428,7 +17482,7 @@
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17458,7 +17512,7 @@
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17490,9 +17544,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A22"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:E5"/>
@@ -17500,22 +17551,32 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH(("Pass"),(H10))))</formula>
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Pass" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("Pass",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H22">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH(("Fail"),(H10))))</formula>
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Fail" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("Fail",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="H10:H22">
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H10:H22" type="list">
       <formula1>"Pass,Fail"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>